--- a/qms/src/main/resources/report/template/iqc_electronic_report_nvl.xlsx
+++ b/qms/src/main/resources/report/template/iqc_electronic_report_nvl.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\RD\qms\qms_server\src\main\resources\report\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RangDongProject\qms\qms\src\main\resources\report\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bien ban kiem tra IQC" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>LTC:</t>
         </r>
@@ -81,7 +81,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 jx:each(items="data2" var="item2" lastCell="M9")</t>
@@ -107,7 +107,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>LTC:</t>
         </r>
@@ -116,7 +116,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 jx:area(lastCell="i10")</t>
@@ -131,7 +131,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ChungNV:</t>
         </r>
@@ -140,7 +140,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 jx:each(items="lstErr" var="item" lastCell="H10")</t>
@@ -427,7 +427,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,13 +506,13 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -533,19 +533,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -781,6 +768,111 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -789,125 +881,20 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1322,48 +1309,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" customWidth="1"/>
-    <col min="12" max="12" width="15.21875" customWidth="1"/>
-    <col min="13" max="13" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:13" ht="23.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
       <c r="K1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="43"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M1" s="25"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1378,22 +1365,22 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:13" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+    <row r="3" spans="1:13" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="54"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="40"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="8" t="s">
         <v>26</v>
       </c>
@@ -1413,22 +1400,22 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+    <row r="4" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="55" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="55"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="42"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="10" t="s">
         <v>27</v>
       </c>
@@ -1448,7 +1435,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1463,7 +1450,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
@@ -1480,45 +1467,45 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="47" t="s">
+    <row r="7" spans="1:13" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="49" t="s">
+      <c r="E7" s="33"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="49" t="s">
+      <c r="H7" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="44" t="s">
+      <c r="J7" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="37" t="s">
+      <c r="K7" s="27"/>
+      <c r="L7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="37" t="s">
+      <c r="M7" s="19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
+    <row r="8" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
@@ -1528,19 +1515,19 @@
       <c r="F8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="38"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="12" t="s">
         <v>13</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-    </row>
-    <row r="9" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+    </row>
+    <row r="9" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>75</v>
       </c>
@@ -1581,7 +1568,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1596,204 +1583,216 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18" t="s">
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="52" t="s">
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="18" t="s">
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18" t="s">
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="19" t="s">
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18" t="s">
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-    </row>
-    <row r="17" spans="1:13" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+    </row>
+    <row r="17" spans="1:13" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="33" t="s">
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="30" t="s">
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="32"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="23"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="26"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="26"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="29"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="47"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="38"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="41"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="41"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="42"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="E12:M12"/>
+    <mergeCell ref="E13:M13"/>
+    <mergeCell ref="E14:M14"/>
+    <mergeCell ref="E15:M15"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="A18:C21"/>
+    <mergeCell ref="H18:M21"/>
+    <mergeCell ref="D18:G21"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="A17:C17"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="J7:K7"/>
@@ -1807,23 +1806,11 @@
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="A18:C21"/>
-    <mergeCell ref="H18:M21"/>
-    <mergeCell ref="D18:G21"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="E12:M12"/>
-    <mergeCell ref="E13:M13"/>
-    <mergeCell ref="E14:M14"/>
-    <mergeCell ref="E15:M15"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1836,128 +1823,128 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="62" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="62"/>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="62" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="62"/>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-    </row>
-    <row r="4" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="58" t="s">
+      <c r="B4" s="56"/>
+      <c r="C4" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59" t="s">
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="59"/>
-      <c r="H4" s="58" t="s">
+      <c r="G4" s="56"/>
+      <c r="H4" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="58"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I4" s="57"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="60"/>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="59" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="58" t="s">
+      <c r="G5" s="56"/>
+      <c r="H5" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="58"/>
-    </row>
-    <row r="6" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I5" s="57"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="60"/>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="59" t="s">
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="58" t="s">
+      <c r="G6" s="56"/>
+      <c r="H6" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="58"/>
-    </row>
-    <row r="7" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="59" t="s">
+      <c r="I6" s="57"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="58" t="s">
+      <c r="B7" s="56"/>
+      <c r="C7" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="58"/>
+      <c r="D7" s="57"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
         <v>24</v>
       </c>
@@ -1970,18 +1957,18 @@
       <c r="H8" s="61"/>
       <c r="I8" s="61"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57" t="s">
+      <c r="C9" s="58"/>
+      <c r="D9" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="57"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1989,18 +1976,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57" t="s">
+      <c r="C10" s="58"/>
+      <c r="D10" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="57"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="2" t="s">
         <v>25</v>
       </c>
@@ -2010,14 +1997,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
@@ -2034,6 +2013,14 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
